--- a/medicine/Sexualité et sexologie/Sugar_baby/Sugar_baby.xlsx
+++ b/medicine/Sexualité et sexologie/Sugar_baby/Sugar_baby.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,11 +490,13 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le terme « sugar baby » (« bébé en sucre ») est un anglicisme argotique contemporain utilisé pour décrire les personnes s'engageant dans des relations avec des personnes plus âgées et plus riches, chaque partie devant y trouver son compte : les sugar babies offrent leur compagnie (ce qui peut aller jusqu'à des relations sexuelles[1]) à des hommes qui les soutiennent financièrement (offrant des cadeaux ou de l'argent, payant diverses activités[2]...)[3].
-La précarité étudiante a été avancée comme l'une des raisons du phénomène[4].
-Le phénomène est présent sur Internet (via des sites de rencontre - Le Figaro recense par exemple 40 000 inscrites en France sur un site spécialisé en 2014[5]), mais aussi des réseaux sociaux comme TikTok[1],[6]. 
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le terme « sugar baby » (« bébé en sucre ») est un anglicisme argotique contemporain utilisé pour décrire les personnes s'engageant dans des relations avec des personnes plus âgées et plus riches, chaque partie devant y trouver son compte : les sugar babies offrent leur compagnie (ce qui peut aller jusqu'à des relations sexuelles) à des hommes qui les soutiennent financièrement (offrant des cadeaux ou de l'argent, payant diverses activités...).
+La précarité étudiante a été avancée comme l'une des raisons du phénomène.
+Le phénomène est présent sur Internet (via des sites de rencontre - Le Figaro recense par exemple 40 000 inscrites en France sur un site spécialisé en 2014), mais aussi des réseaux sociaux comme TikTok,. 
 </t>
         </is>
       </c>
@@ -513,9 +525,11 @@
           <t>La figure du sugar baby</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les sugar babies sont majoritairement des jeunes femmes, mais on y trouve également des jeunes hommes[4]. 
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les sugar babies sont majoritairement des jeunes femmes, mais on y trouve également des jeunes hommes. 
 Les sugar babies ont ainsi été analysées par la sociologue Hélène Pohu : au début, elles voient de l’argent – pas facile, il n’est jamais facile – mais rapide. L’ultraconsommation est accessible et tout paraît beau, elles ont un sentiment de liberté extrême mais au fur et à mesure, le piège se referme.
 </t>
         </is>
